--- a/data/apps-master/1993.xlsx
+++ b/data/apps-master/1993.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisowen/Desktop/tranmere-web/data/apps-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24995BF9-7FA1-B847-8466-F0E878CC0A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE21E4C1-11A9-2B49-9358-834393D81AFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="16420" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="16320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,15 @@
     <sheet name="11" sheetId="11" r:id="rId11"/>
     <sheet name="goals" sheetId="12" r:id="rId12"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3'!$A$1:$M$60</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="82">
   <si>
     <t>Date</t>
   </si>
@@ -259,6 +262,24 @@
   </si>
   <si>
     <t>Play Offs</t>
+  </si>
+  <si>
+    <t>1993-08-31</t>
+  </si>
+  <si>
+    <t>Anglo Italian Cup</t>
+  </si>
+  <si>
+    <t>1993-09-07</t>
+  </si>
+  <si>
+    <t>SubSubbedBy</t>
+  </si>
+  <si>
+    <t>SubYellow</t>
+  </si>
+  <si>
+    <t>SubRed</t>
   </si>
 </sst>
 </file>
@@ -1103,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D60" sqref="A58:D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2090,7 +2111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>34428</v>
       </c>
@@ -2110,7 +2131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>34433</v>
       </c>
@@ -2130,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>34436</v>
       </c>
@@ -2150,7 +2171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>34440</v>
       </c>
@@ -2170,7 +2191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>34447</v>
       </c>
@@ -2190,7 +2211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>34450</v>
       </c>
@@ -2210,7 +2231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>34454</v>
       </c>
@@ -2227,6 +2248,109 @@
         <v>38</v>
       </c>
       <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56">
+        <v>1993</v>
+      </c>
+      <c r="E56" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57">
+        <v>1993</v>
+      </c>
+      <c r="E57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>34462</v>
+      </c>
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>1993</v>
+      </c>
+      <c r="E58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>34469</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59">
+        <v>1993</v>
+      </c>
+      <c r="E59" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>34472</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60">
+        <v>1993</v>
+      </c>
+      <c r="E60" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="J60" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2237,10 +2361,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3376,6 +3500,106 @@
         <v>10</v>
       </c>
     </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56">
+        <v>1993</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57">
+        <v>1993</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>34462</v>
+      </c>
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>1993</v>
+      </c>
+      <c r="E58" t="s">
+        <v>58</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>34469</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59">
+        <v>1993</v>
+      </c>
+      <c r="E59" t="s">
+        <v>58</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>34472</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60">
+        <v>1993</v>
+      </c>
+      <c r="E60" t="s">
+        <v>58</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3383,10 +3607,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4515,6 +4739,106 @@
         <v>11</v>
       </c>
     </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56">
+        <v>1993</v>
+      </c>
+      <c r="E56" t="s">
+        <v>53</v>
+      </c>
+      <c r="F56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57">
+        <v>1993</v>
+      </c>
+      <c r="E57" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>34462</v>
+      </c>
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>1993</v>
+      </c>
+      <c r="E58" t="s">
+        <v>53</v>
+      </c>
+      <c r="F58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>34469</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59">
+        <v>1993</v>
+      </c>
+      <c r="E59" t="s">
+        <v>53</v>
+      </c>
+      <c r="F59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>34472</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60">
+        <v>1993</v>
+      </c>
+      <c r="E60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F60">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4522,10 +4846,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A603B6E-33B0-1E44-A1EA-E7F55F205C87}">
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6108,19 +6432,53 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
+        <v>34462</v>
+      </c>
+      <c r="B90" t="s">
+        <v>30</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90">
+        <v>1993</v>
+      </c>
+      <c r="E90" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
         <v>34472</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>12</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C91" t="s">
         <v>75</v>
       </c>
-      <c r="D90">
-        <v>1993</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="D91">
+        <v>1993</v>
+      </c>
+      <c r="E91" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" t="s">
+        <v>77</v>
+      </c>
+      <c r="D92">
+        <v>1993</v>
+      </c>
+      <c r="E92" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -6130,10 +6488,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7263,6 +7621,106 @@
         <v>2</v>
       </c>
     </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56">
+        <v>1993</v>
+      </c>
+      <c r="E56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57">
+        <v>1993</v>
+      </c>
+      <c r="E57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>34462</v>
+      </c>
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>1993</v>
+      </c>
+      <c r="E58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>34469</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59">
+        <v>1993</v>
+      </c>
+      <c r="E59" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>34472</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60">
+        <v>1993</v>
+      </c>
+      <c r="E60" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7270,10 +7728,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7282,7 +7740,7 @@
     <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7313,8 +7771,17 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>34195</v>
       </c>
@@ -7334,7 +7801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>34202</v>
       </c>
@@ -7354,7 +7821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>34205</v>
       </c>
@@ -7374,7 +7841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>34209</v>
       </c>
@@ -7397,15 +7864,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>34216</v>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="D6">
         <v>1993</v>
@@ -7416,13 +7883,19 @@
       <c r="F6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>34223</v>
+        <v>34216</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -7431,38 +7904,38 @@
         <v>1993</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>34226</v>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="D8">
         <v>1993</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>34230</v>
+        <v>34223</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -7477,32 +7950,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>34233</v>
+        <v>34226</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>1993</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>34237</v>
+        <v>34230</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -7511,21 +7984,21 @@
         <v>1993</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>34244</v>
+        <v>34233</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>1993</v>
@@ -7537,15 +8010,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>34247</v>
+        <v>34237</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>1993</v>
@@ -7557,12 +8030,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>34251</v>
+        <v>34244</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -7577,15 +8050,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>34258</v>
+        <v>34247</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>1993</v>
@@ -7597,12 +8070,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>34264</v>
+        <v>34251</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -7619,13 +8092,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>34268</v>
+        <v>34258</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D17">
         <v>1993</v>
@@ -7639,10 +8112,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>34272</v>
+        <v>34264</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -7659,13 +8132,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>34275</v>
+        <v>34268</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <v>1993</v>
@@ -7679,10 +8152,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>34279</v>
+        <v>34272</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -7699,10 +8172,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>34286</v>
+        <v>34275</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -7719,10 +8192,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>34293</v>
+        <v>34279</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -7739,10 +8212,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>34300</v>
+        <v>34286</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -7759,13 +8232,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>34303</v>
+        <v>34293</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D24">
         <v>1993</v>
@@ -7779,10 +8252,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>34306</v>
+        <v>34300</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -7799,13 +8272,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>34314</v>
+        <v>34303</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D26">
         <v>1993</v>
@@ -7819,10 +8292,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>34322</v>
+        <v>34306</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -7839,10 +8312,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>34330</v>
+        <v>34314</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -7859,10 +8332,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>34332</v>
+        <v>34322</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -7879,10 +8352,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>34335</v>
+        <v>34330</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
@@ -7899,10 +8372,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>34337</v>
+        <v>34332</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -7919,13 +8392,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>34342</v>
+        <v>34335</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D32">
         <v>1993</v>
@@ -7939,10 +8412,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>34350</v>
+        <v>34337</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -7959,13 +8432,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>34357</v>
+        <v>34342</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D34">
         <v>1993</v>
@@ -7976,19 +8449,16 @@
       <c r="F34">
         <v>3</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>34360</v>
+        <v>34350</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D35">
         <v>1993</v>
@@ -8002,13 +8472,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>34363</v>
+        <v>34357</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D36">
         <v>1993</v>
@@ -8025,19 +8495,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>34370</v>
+        <v>34360</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D37">
         <v>1993</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F37">
         <v>3</v>
@@ -8045,13 +8515,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>34376</v>
+        <v>34363</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D38">
         <v>1993</v>
@@ -8062,22 +8532,25 @@
       <c r="F38">
         <v>3</v>
       </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>34381</v>
+        <v>34370</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D39">
         <v>1993</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F39">
         <v>3</v>
@@ -8085,10 +8558,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>34388</v>
+        <v>34376</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
@@ -8105,7 +8578,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>34392</v>
+        <v>34381</v>
       </c>
       <c r="B41" t="s">
         <v>37</v>
@@ -8125,10 +8598,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>34398</v>
+        <v>34388</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
@@ -8145,13 +8618,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>34405</v>
+        <v>34392</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D43">
         <v>1993</v>
@@ -8165,10 +8638,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>34408</v>
+        <v>34398</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
@@ -8185,10 +8658,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>34412</v>
+        <v>34405</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
         <v>11</v>
@@ -8205,10 +8678,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>34418</v>
+        <v>34408</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
@@ -8225,10 +8698,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>34422</v>
+        <v>34412</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C47" t="s">
         <v>11</v>
@@ -8245,10 +8718,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>34426</v>
+        <v>34418</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
@@ -8265,10 +8738,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>34428</v>
+        <v>34422</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
@@ -8285,10 +8758,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>34433</v>
+        <v>34426</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
@@ -8305,10 +8778,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>34436</v>
+        <v>34428</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
@@ -8325,10 +8798,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>34440</v>
+        <v>34433</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
@@ -8345,10 +8818,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>34447</v>
+        <v>34436</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
         <v>11</v>
@@ -8365,10 +8838,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>34450</v>
+        <v>34440</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C54" t="s">
         <v>11</v>
@@ -8385,10 +8858,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>34454</v>
+        <v>34447</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
         <v>11</v>
@@ -8403,17 +8876,122 @@
         <v>3</v>
       </c>
     </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>34450</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>1993</v>
+      </c>
+      <c r="E56" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>34454</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>1993</v>
+      </c>
+      <c r="E57" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>34462</v>
+      </c>
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>1993</v>
+      </c>
+      <c r="E58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>34469</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59">
+        <v>1993</v>
+      </c>
+      <c r="E59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>34472</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60">
+        <v>1993</v>
+      </c>
+      <c r="E60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:M60" xr:uid="{C9E3A94E-0582-4A41-BE75-20285AA97B92}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M60">
+    <sortCondition ref="A2:A60"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9550,6 +10128,106 @@
         <v>4</v>
       </c>
     </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56">
+        <v>1993</v>
+      </c>
+      <c r="E56" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57">
+        <v>1993</v>
+      </c>
+      <c r="E57" t="s">
+        <v>46</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>34462</v>
+      </c>
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>1993</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>34469</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59">
+        <v>1993</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>34472</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60">
+        <v>1993</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9557,10 +10235,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10706,6 +11384,106 @@
         <v>5</v>
       </c>
     </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56">
+        <v>1993</v>
+      </c>
+      <c r="E56" t="s">
+        <v>50</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57">
+        <v>1993</v>
+      </c>
+      <c r="E57" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>34462</v>
+      </c>
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>1993</v>
+      </c>
+      <c r="E58" t="s">
+        <v>52</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>34469</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59">
+        <v>1993</v>
+      </c>
+      <c r="E59" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>34472</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60">
+        <v>1993</v>
+      </c>
+      <c r="E60" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10713,10 +11491,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11848,6 +12626,106 @@
         <v>48</v>
       </c>
     </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56">
+        <v>1993</v>
+      </c>
+      <c r="E56" t="s">
+        <v>56</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57">
+        <v>1993</v>
+      </c>
+      <c r="E57" t="s">
+        <v>52</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>34462</v>
+      </c>
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>1993</v>
+      </c>
+      <c r="E58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>34469</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59">
+        <v>1993</v>
+      </c>
+      <c r="E59" t="s">
+        <v>57</v>
+      </c>
+      <c r="F59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>34472</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60">
+        <v>1993</v>
+      </c>
+      <c r="E60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F60">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -11855,10 +12733,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58:E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12998,6 +13876,109 @@
         <v>7</v>
       </c>
     </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56">
+        <v>1993</v>
+      </c>
+      <c r="E56" t="s">
+        <v>58</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57">
+        <v>1993</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>34462</v>
+      </c>
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>1993</v>
+      </c>
+      <c r="E58" t="s">
+        <v>49</v>
+      </c>
+      <c r="F58">
+        <v>7</v>
+      </c>
+      <c r="G58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>34469</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59">
+        <v>1993</v>
+      </c>
+      <c r="E59" t="s">
+        <v>49</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>34472</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60">
+        <v>1993</v>
+      </c>
+      <c r="E60" t="s">
+        <v>49</v>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -13005,10 +13986,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14151,6 +15132,106 @@
         <v>8</v>
       </c>
     </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56">
+        <v>1993</v>
+      </c>
+      <c r="E56" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57">
+        <v>1993</v>
+      </c>
+      <c r="E57" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>34462</v>
+      </c>
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>1993</v>
+      </c>
+      <c r="E58" t="s">
+        <v>59</v>
+      </c>
+      <c r="F58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>34469</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59">
+        <v>1993</v>
+      </c>
+      <c r="E59" t="s">
+        <v>59</v>
+      </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>34472</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60">
+        <v>1993</v>
+      </c>
+      <c r="E60" t="s">
+        <v>59</v>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -14158,10 +15239,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15300,6 +16381,106 @@
         <v>9</v>
       </c>
     </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56">
+        <v>1993</v>
+      </c>
+      <c r="E56" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57">
+        <v>1993</v>
+      </c>
+      <c r="E57" t="s">
+        <v>60</v>
+      </c>
+      <c r="F57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>34462</v>
+      </c>
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>1993</v>
+      </c>
+      <c r="E58" t="s">
+        <v>46</v>
+      </c>
+      <c r="F58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>34469</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59">
+        <v>1993</v>
+      </c>
+      <c r="E59" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>34472</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60">
+        <v>1993</v>
+      </c>
+      <c r="E60" t="s">
+        <v>46</v>
+      </c>
+      <c r="F60">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/apps-master/1993.xlsx
+++ b/data/apps-master/1993.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisowen/Desktop/tranmere-web/data/apps-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE21E4C1-11A9-2B49-9358-834393D81AFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D58174-D73E-B64D-B4B8-1AEBFE5C4CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="16320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="16320" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2433" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>SubRed</t>
+  </si>
+  <si>
+    <t>Martin Jones</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1130,7 @@
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D60" sqref="A58:D60"/>
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2364,7 +2367,7 @@
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3360,7 +3363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>34428</v>
       </c>
@@ -3380,7 +3383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>34433</v>
       </c>
@@ -3400,7 +3403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>34436</v>
       </c>
@@ -3420,7 +3423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>34440</v>
       </c>
@@ -3440,7 +3443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>34447</v>
       </c>
@@ -3460,7 +3463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>34450</v>
       </c>
@@ -3480,7 +3483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>34454</v>
       </c>
@@ -3500,7 +3503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>76</v>
       </c>
@@ -3520,7 +3523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>78</v>
       </c>
@@ -3540,7 +3543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>34462</v>
       </c>
@@ -3560,7 +3563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>34469</v>
       </c>
@@ -3580,7 +3583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>34472</v>
       </c>
@@ -3598,6 +3601,9 @@
       </c>
       <c r="F60">
         <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4849,7 +4855,7 @@
   <dimension ref="A1:N92"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="K78" sqref="K78"/>
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4993,23 +4999,20 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>34223</v>
+      <c r="A7" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="D7">
         <v>1993</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -5026,18 +5029,18 @@
         <v>1993</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>34226</v>
+        <v>34223</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -5046,7 +5049,10 @@
         <v>1993</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -5063,7 +5069,7 @@
         <v>1993</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -5080,7 +5086,7 @@
         <v>1993</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -5097,24 +5103,24 @@
         <v>1993</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>34233</v>
+        <v>34226</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>1993</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -5165,7 +5171,7 @@
         <v>1993</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -5187,19 +5193,19 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>34237</v>
+        <v>34233</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D18">
         <v>1993</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -5216,15 +5222,15 @@
         <v>1993</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>34244</v>
+        <v>34237</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -5233,7 +5239,7 @@
         <v>1993</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -5250,41 +5256,41 @@
         <v>1993</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>34247</v>
+        <v>34244</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D22">
         <v>1993</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>34251</v>
+        <v>34247</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D23">
         <v>1993</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -5301,15 +5307,15 @@
         <v>1993</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>34258</v>
+        <v>34251</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -5318,15 +5324,15 @@
         <v>1993</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>34264</v>
+        <v>34258</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -5335,7 +5341,7 @@
         <v>1993</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -5352,24 +5358,24 @@
         <v>1993</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>34268</v>
+        <v>34264</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D28">
         <v>1993</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -5386,7 +5392,7 @@
         <v>1993</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -5403,7 +5409,7 @@
         <v>1993</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -5425,19 +5431,19 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>34275</v>
+        <v>34268</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D32">
         <v>1993</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -5471,15 +5477,15 @@
         <v>1993</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>34286</v>
+        <v>34275</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -5488,7 +5494,7 @@
         <v>1993</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -5505,7 +5511,7 @@
         <v>1993</v>
       </c>
       <c r="E36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -5522,7 +5528,7 @@
         <v>1993</v>
       </c>
       <c r="E37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -5539,15 +5545,15 @@
         <v>1993</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>34293</v>
+        <v>34286</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -5556,18 +5562,15 @@
         <v>1993</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>34300</v>
+        <v>34293</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
@@ -5576,7 +5579,10 @@
         <v>1993</v>
       </c>
       <c r="E40" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="G40" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -5610,24 +5616,24 @@
         <v>1993</v>
       </c>
       <c r="E42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>34303</v>
+        <v>34300</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D43">
         <v>1993</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -5661,18 +5667,18 @@
         <v>1993</v>
       </c>
       <c r="E45" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>34306</v>
+        <v>34303</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D46">
         <v>1993</v>
@@ -5695,15 +5701,15 @@
         <v>1993</v>
       </c>
       <c r="E47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>34314</v>
+        <v>34306</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
@@ -5712,15 +5718,15 @@
         <v>1993</v>
       </c>
       <c r="E48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>34330</v>
+        <v>34314</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
@@ -5729,15 +5735,15 @@
         <v>1993</v>
       </c>
       <c r="E49" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>34335</v>
+        <v>34330</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
@@ -5746,7 +5752,7 @@
         <v>1993</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -5763,15 +5769,15 @@
         <v>1993</v>
       </c>
       <c r="E51" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>34350</v>
+        <v>34335</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
@@ -5780,15 +5786,15 @@
         <v>1993</v>
       </c>
       <c r="E52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>34357</v>
+        <v>34350</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C53" t="s">
         <v>11</v>
@@ -5797,18 +5803,18 @@
         <v>1993</v>
       </c>
       <c r="E53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>34360</v>
+        <v>34357</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D54">
         <v>1993</v>
@@ -5819,7 +5825,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>34363</v>
+        <v>34360</v>
       </c>
       <c r="B55" t="s">
         <v>23</v>
@@ -5831,32 +5837,32 @@
         <v>1993</v>
       </c>
       <c r="E55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>34370</v>
+        <v>34363</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D56">
         <v>1993</v>
       </c>
       <c r="E56" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>34376</v>
+        <v>34370</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C57" t="s">
         <v>11</v>
@@ -5865,7 +5871,7 @@
         <v>1993</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -5882,7 +5888,7 @@
         <v>1993</v>
       </c>
       <c r="E58" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -5899,30 +5905,24 @@
         <v>1993</v>
       </c>
       <c r="E59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>34381</v>
+        <v>34376</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D60">
         <v>1993</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
-      </c>
-      <c r="F60" t="s">
-        <v>58</v>
-      </c>
-      <c r="G60" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -5939,7 +5939,10 @@
         <v>1993</v>
       </c>
       <c r="E61" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="F61" t="s">
+        <v>58</v>
       </c>
       <c r="G61" t="s">
         <v>71</v>
@@ -5959,10 +5962,7 @@
         <v>1993</v>
       </c>
       <c r="E62" t="s">
-        <v>59</v>
-      </c>
-      <c r="F62" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s">
         <v>71</v>
@@ -5970,76 +5970,82 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>34388</v>
+        <v>34381</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D63">
         <v>1993</v>
       </c>
       <c r="E63" t="s">
-        <v>41</v>
+        <v>59</v>
+      </c>
+      <c r="F63" t="s">
+        <v>46</v>
+      </c>
+      <c r="G63" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
+        <v>34388</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64">
+        <v>1993</v>
+      </c>
+      <c r="E64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
         <v>34392</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>37</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>20</v>
       </c>
-      <c r="D64">
-        <v>1993</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="D65">
+        <v>1993</v>
+      </c>
+      <c r="E65" t="s">
         <v>59</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G65" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
         <v>34398</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>14</v>
       </c>
-      <c r="C65" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65">
-        <v>1993</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66">
+        <v>1993</v>
+      </c>
+      <c r="E66" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>34408</v>
-      </c>
-      <c r="B66" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66">
-        <v>1993</v>
-      </c>
-      <c r="E66" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>34408</v>
       </c>
@@ -6056,12 +6062,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>34418</v>
+        <v>34408</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
         <v>11</v>
@@ -6073,12 +6079,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>34422</v>
+        <v>34418</v>
       </c>
       <c r="B69" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C69" t="s">
         <v>11</v>
@@ -6090,7 +6096,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>34422</v>
       </c>
@@ -6107,7 +6113,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>34422</v>
       </c>
@@ -6121,10 +6127,10 @@
         <v>1993</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>34422</v>
       </c>
@@ -6138,44 +6144,44 @@
         <v>1993</v>
       </c>
       <c r="E72" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>34422</v>
+      </c>
+      <c r="B73" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73">
+        <v>1993</v>
+      </c>
+      <c r="E73" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
         <v>34426</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>32</v>
       </c>
-      <c r="C73" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73">
-        <v>1993</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74">
+        <v>1993</v>
+      </c>
+      <c r="E74" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <v>34428</v>
-      </c>
-      <c r="B74" t="s">
-        <v>33</v>
-      </c>
-      <c r="C74" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74">
-        <v>1993</v>
-      </c>
-      <c r="E74" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>34428</v>
       </c>
@@ -6189,10 +6195,10 @@
         <v>1993</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>34428</v>
       </c>
@@ -6206,10 +6212,10 @@
         <v>1993</v>
       </c>
       <c r="E76" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>34428</v>
       </c>
@@ -6223,27 +6229,27 @@
         <v>1993</v>
       </c>
       <c r="E77" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>34428</v>
+      </c>
+      <c r="B78" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78">
+        <v>1993</v>
+      </c>
+      <c r="E78" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <v>34433</v>
-      </c>
-      <c r="B78" t="s">
-        <v>34</v>
-      </c>
-      <c r="C78" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78">
-        <v>1993</v>
-      </c>
-      <c r="E78" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>34433</v>
       </c>
@@ -6257,24 +6263,24 @@
         <v>1993</v>
       </c>
       <c r="E79" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>34433</v>
+      </c>
+      <c r="B80" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80">
+        <v>1993</v>
+      </c>
+      <c r="E80" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
-        <v>34440</v>
-      </c>
-      <c r="B80" t="s">
-        <v>26</v>
-      </c>
-      <c r="C80" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80">
-        <v>1993</v>
-      </c>
-      <c r="E80" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -6291,7 +6297,7 @@
         <v>1993</v>
       </c>
       <c r="E81" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -6308,15 +6314,15 @@
         <v>1993</v>
       </c>
       <c r="E82" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>34447</v>
+        <v>34440</v>
       </c>
       <c r="B83" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C83" t="s">
         <v>11</v>
@@ -6325,7 +6331,7 @@
         <v>1993</v>
       </c>
       <c r="E83" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -6359,15 +6365,15 @@
         <v>1993</v>
       </c>
       <c r="E85" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>34450</v>
+        <v>34447</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C86" t="s">
         <v>11</v>
@@ -6376,7 +6382,7 @@
         <v>1993</v>
       </c>
       <c r="E86" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -6393,15 +6399,15 @@
         <v>1993</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>34454</v>
+        <v>34450</v>
       </c>
       <c r="B88" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C88" t="s">
         <v>11</v>
@@ -6410,7 +6416,7 @@
         <v>1993</v>
       </c>
       <c r="E88" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -6427,15 +6433,15 @@
         <v>1993</v>
       </c>
       <c r="E89" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>34462</v>
+        <v>34454</v>
       </c>
       <c r="B90" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C90" t="s">
         <v>11</v>
@@ -6449,39 +6455,42 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
+        <v>34462</v>
+      </c>
+      <c r="B91" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91">
+        <v>1993</v>
+      </c>
+      <c r="E91" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
         <v>34472</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>12</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
         <v>75</v>
       </c>
-      <c r="D91">
-        <v>1993</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="D92">
+        <v>1993</v>
+      </c>
+      <c r="E92" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B92" t="s">
-        <v>22</v>
-      </c>
-      <c r="C92" t="s">
-        <v>77</v>
-      </c>
-      <c r="D92">
-        <v>1993</v>
-      </c>
-      <c r="E92" t="s">
-        <v>60</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N92">
+    <sortCondition ref="A2:A92"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7730,8 +7739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12735,8 +12744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58:E60"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13953,7 +13962,7 @@
         <v>1993</v>
       </c>
       <c r="E59" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F59">
         <v>7</v>
@@ -13973,7 +13982,7 @@
         <v>1993</v>
       </c>
       <c r="E60" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F60">
         <v>7</v>
@@ -15241,8 +15250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16241,7 +16250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>34428</v>
       </c>
@@ -16261,7 +16270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>34433</v>
       </c>
@@ -16281,7 +16290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>34436</v>
       </c>
@@ -16301,7 +16310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>34440</v>
       </c>
@@ -16321,7 +16330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>34447</v>
       </c>
@@ -16341,7 +16350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>34450</v>
       </c>
@@ -16361,7 +16370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>34454</v>
       </c>
@@ -16381,7 +16390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>76</v>
       </c>
@@ -16401,7 +16410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>78</v>
       </c>
@@ -16421,7 +16430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>34462</v>
       </c>
@@ -16441,7 +16450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>34469</v>
       </c>
@@ -16460,8 +16469,11 @@
       <c r="F59">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>34472</v>
       </c>
@@ -16479,6 +16491,9 @@
       </c>
       <c r="F60">
         <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/data/apps-master/1993.xlsx
+++ b/data/apps-master/1993.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisowen/Desktop/tranmere-web/data/apps-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D58174-D73E-B64D-B4B8-1AEBFE5C4CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EAA471-A9B1-4444-9481-577A52E5EC68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="16320" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16320" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3'!$A$1:$M$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">goals!$A$1:$N$92</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -4854,8 +4855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A603B6E-33B0-1E44-A1EA-E7F55F205C87}">
   <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5545,7 +5546,7 @@
         <v>1993</v>
       </c>
       <c r="E38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -6488,6 +6489,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N92" xr:uid="{67D8620F-EB08-B640-99C2-BAED13F91E4C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N92">
     <sortCondition ref="A2:A92"/>
   </sortState>
@@ -12744,8 +12746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
